--- a/Functions per user type.xlsx
+++ b/Functions per user type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Google Drive\NEIU\CS319\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{753C491F-260E-4A46-8A87-9745F26B5663}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0B07DB8C-D7E7-4AEE-B58F-380B476A6C37}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{15612CE9-9008-41E2-B7F0-7C6594A3D9BD}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Search Patrons</t>
   </si>
   <si>
-    <t>Password Reset</t>
-  </si>
-  <si>
     <t>Recover Username</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>Delete Patron Records</t>
+  </si>
+  <si>
+    <t>Reset Password</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,16 +612,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -630,16 +630,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -648,16 +648,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -666,16 +666,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -684,16 +684,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -702,52 +702,52 @@
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -756,53 +756,53 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -811,88 +811,88 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="1"/>
     </row>
